--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -899,7 +899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,286 +1074,526 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>africomet 1000</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.74</v>
-      </c>
+          <t>africomet + baseline new 1000</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1.3265</v>
+        <v>6.0654</v>
       </c>
       <c r="D8" t="n">
-        <v>1.4961</v>
+        <v>5.8681</v>
       </c>
       <c r="E8" t="n">
-        <v>11.1082</v>
+        <v>26.1826</v>
       </c>
       <c r="F8" t="n">
-        <v>11.3544</v>
+        <v>26.3895</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>africomet 16000</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>33.54</v>
-      </c>
+          <t>africomet + baseline new 16000</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>2.3505</v>
+        <v>5.6329</v>
       </c>
       <c r="D9" t="n">
-        <v>2.9705</v>
+        <v>5.2887</v>
       </c>
       <c r="E9" t="n">
-        <v>18.214</v>
+        <v>25.5318</v>
       </c>
       <c r="F9" t="n">
-        <v>19.2155</v>
+        <v>25.7263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>africomet 2000</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>20.81</v>
-      </c>
+          <t>africomet + baseline new 2000</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1.825</v>
+        <v>6.0536</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0459</v>
+        <v>5.9324</v>
       </c>
       <c r="E10" t="n">
-        <v>13.6629</v>
+        <v>26.1145</v>
       </c>
       <c r="F10" t="n">
-        <v>14.4088</v>
+        <v>26.6224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>africomet 32000</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>37.42</v>
-      </c>
+          <t>africomet + baseline new 32000</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>2.5804</v>
+        <v>4.9473</v>
       </c>
       <c r="D11" t="n">
-        <v>3.1835</v>
+        <v>5.2105</v>
       </c>
       <c r="E11" t="n">
-        <v>19.4017</v>
+        <v>24.7882</v>
       </c>
       <c r="F11" t="n">
-        <v>20.3393</v>
+        <v>25.4601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>africomet 4000</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.87</v>
-      </c>
+          <t>africomet + baseline new 4000</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1.9582</v>
+        <v>5.8254</v>
       </c>
       <c r="D12" t="n">
-        <v>2.251</v>
+        <v>5.9245</v>
       </c>
       <c r="E12" t="n">
-        <v>15.4081</v>
+        <v>25.6706</v>
       </c>
       <c r="F12" t="n">
-        <v>15.9686</v>
+        <v>26.2626</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>africomet 8000</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.98</v>
-      </c>
+          <t>africomet + baseline new 8000</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>2.3066</v>
+        <v>6.0582</v>
       </c>
       <c r="D13" t="n">
-        <v>2.7618</v>
+        <v>5.5947</v>
       </c>
       <c r="E13" t="n">
-        <v>17.146</v>
+        <v>26.0904</v>
       </c>
       <c r="F13" t="n">
-        <v>18.1342</v>
+        <v>26.3374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>africomet 1000</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.47</v>
+        <v>15.74</v>
       </c>
       <c r="C14" t="n">
-        <v>5.801</v>
+        <v>1.3265</v>
       </c>
       <c r="D14" t="n">
-        <v>5.7155</v>
+        <v>1.4961</v>
       </c>
       <c r="E14" t="n">
-        <v>25.8441</v>
+        <v>11.1082</v>
       </c>
       <c r="F14" t="n">
-        <v>26.1312</v>
+        <v>11.3544</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>random 1000</t>
+          <t>africomet 16000</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.22</v>
+        <v>33.54</v>
       </c>
       <c r="C15" t="n">
-        <v>1.4506</v>
+        <v>2.3505</v>
       </c>
       <c r="D15" t="n">
-        <v>1.7677</v>
+        <v>2.9705</v>
       </c>
       <c r="E15" t="n">
-        <v>13.131</v>
+        <v>18.214</v>
       </c>
       <c r="F15" t="n">
-        <v>13.7565</v>
+        <v>19.2155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>random 16000</t>
+          <t>africomet 2000</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.33</v>
+        <v>20.81</v>
       </c>
       <c r="C16" t="n">
-        <v>2.259</v>
+        <v>1.825</v>
       </c>
       <c r="D16" t="n">
-        <v>2.6018</v>
+        <v>2.0459</v>
       </c>
       <c r="E16" t="n">
-        <v>17.0989</v>
+        <v>13.6629</v>
       </c>
       <c r="F16" t="n">
-        <v>17.8236</v>
+        <v>14.4088</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>random 2000</t>
+          <t>africomet 32000</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28</v>
+        <v>37.42</v>
       </c>
       <c r="C17" t="n">
-        <v>1.455</v>
+        <v>2.5804</v>
       </c>
       <c r="D17" t="n">
-        <v>1.7998</v>
+        <v>3.1835</v>
       </c>
       <c r="E17" t="n">
-        <v>13.2411</v>
+        <v>19.4017</v>
       </c>
       <c r="F17" t="n">
-        <v>14.0449</v>
+        <v>20.3393</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>random 32000</t>
+          <t>africomet 4000</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>32.31</v>
+        <v>24.87</v>
       </c>
       <c r="C18" t="n">
-        <v>2.4363</v>
+        <v>1.9582</v>
       </c>
       <c r="D18" t="n">
-        <v>2.9492</v>
+        <v>2.251</v>
       </c>
       <c r="E18" t="n">
-        <v>18.0688</v>
+        <v>15.4081</v>
       </c>
       <c r="F18" t="n">
-        <v>18.9326</v>
+        <v>15.9686</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>random 4000</t>
+          <t>africomet 8000</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.94</v>
+        <v>29.98</v>
       </c>
       <c r="C19" t="n">
-        <v>1.851</v>
+        <v>2.3066</v>
       </c>
       <c r="D19" t="n">
-        <v>2.1924</v>
+        <v>2.7618</v>
       </c>
       <c r="E19" t="n">
-        <v>14.551</v>
+        <v>17.146</v>
       </c>
       <c r="F19" t="n">
-        <v>15.2399</v>
+        <v>18.1342</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>africomet new 1000</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1.4718</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.7945</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.6701</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13.2307</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>africomet new 16000</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>2.5926</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.1318</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19.031</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19.8229</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>africomet new 2000</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>2.0386</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.1801</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15.033</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15.3327</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>africomet new 32000</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>2.7068</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.3009</v>
+      </c>
+      <c r="E23" t="n">
+        <v>19.9033</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20.5543</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>africomet new 4000</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>2.2921</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.5064</v>
+      </c>
+      <c r="E24" t="n">
+        <v>16.5751</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17.2693</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>africomet new 8000</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>2.503</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.9111</v>
+      </c>
+      <c r="E25" t="n">
+        <v>17.7865</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18.5805</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>64.47</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.801</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.7155</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25.8441</v>
+      </c>
+      <c r="F26" t="n">
+        <v>26.1312</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>random 1000</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.4506</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.7677</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13.131</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13.7565</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>random 16000</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.6018</v>
+      </c>
+      <c r="E28" t="n">
+        <v>17.0989</v>
+      </c>
+      <c r="F28" t="n">
+        <v>17.8236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>random 2000</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.7998</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13.2411</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14.0449</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>random 32000</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.4363</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.9492</v>
+      </c>
+      <c r="E30" t="n">
+        <v>18.0688</v>
+      </c>
+      <c r="F30" t="n">
+        <v>18.9326</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>random 4000</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.1924</v>
+      </c>
+      <c r="E31" t="n">
+        <v>14.551</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15.2399</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>random 8000</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B32" t="n">
         <v>25.61</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C32" t="n">
         <v>2.1956</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D32" t="n">
         <v>2.4181</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E32" t="n">
         <v>16.0142</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F32" t="n">
         <v>16.6916</v>
       </c>
     </row>
